--- a/data/number_of_primary_insured/0095.xlsx
+++ b/data/number_of_primary_insured/0095.xlsx
@@ -1,46 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\d8329\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+  <si>
+    <t>#property</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>numberOfPrimaryInsured</t>
+  </si>
+  <si>
+    <t>numberOfPeopleCertifiedForLongTermCare</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>高松市</t>
+  </si>
+  <si>
+    <t>10/1/2017</t>
+  </si>
+  <si>
+    <t>115054</t>
+  </si>
+  <si>
+    <t>23870</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10/1/2018</t>
+  </si>
+  <si>
+    <t>116669</t>
+  </si>
+  <si>
+    <t>24830</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10/1/2019</t>
+  </si>
+  <si>
+    <t>117569</t>
+  </si>
+  <si>
+    <t>25068</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>118602</t>
+  </si>
+  <si>
+    <t>24826</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10/1/2021</t>
+  </si>
+  <si>
+    <t>119526</t>
+  </si>
+  <si>
+    <t>25105</t>
+  </si>
+  <si>
+    <t>10/1/2022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,10 +147,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,117 +483,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>#property</v>
-      </c>
-      <c r="B1" t="str">
-        <v>address</v>
-      </c>
-      <c r="C1" t="str">
-        <v>date</v>
-      </c>
-      <c r="D1" t="str">
-        <v>numberOfPrimaryInsured</v>
-      </c>
-      <c r="E1" t="str">
-        <v>numberOfPeopleCertifiedForLongTermCare</v>
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C2" t="str">
-        <v>10/1/2017</v>
-      </c>
-      <c r="D2" t="str">
-        <v>115054</v>
-      </c>
-      <c r="E2" t="str">
-        <v>23870</v>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C3" t="str">
-        <v>10/1/2018</v>
-      </c>
-      <c r="D3" t="str">
-        <v>116669</v>
-      </c>
-      <c r="E3" t="str">
-        <v>24830</v>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C4" t="str">
-        <v>10/1/2019</v>
-      </c>
-      <c r="D4" t="str">
-        <v>117569</v>
-      </c>
-      <c r="E4" t="str">
-        <v>25068</v>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C5" t="str">
-        <v>10/1/2020</v>
-      </c>
-      <c r="D5" t="str">
-        <v>118602</v>
-      </c>
-      <c r="E5" t="str">
-        <v>24826</v>
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="C6" t="str">
-        <v>10/1/2021</v>
-      </c>
-      <c r="D6" t="str">
-        <v>119526</v>
-      </c>
-      <c r="E6" t="str">
-        <v>25105</v>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>119693</v>
+      </c>
+      <c r="E7">
+        <v>25271</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/number_of_primary_insured/0095.xlsx
+++ b/data/number_of_primary_insured/0095.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>#property</t>
   </si>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>10/1/2022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/1/2023</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -143,8 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -484,15 +491,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -526,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -543,7 +553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -560,7 +570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -577,7 +587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -594,8 +604,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -604,11 +614,28 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>119693</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>25271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>119753</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25445</v>
       </c>
     </row>
   </sheetData>

--- a/data/number_of_primary_insured/0095.xlsx
+++ b/data/number_of_primary_insured/0095.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>#property</t>
   </si>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>10/1/2023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/1/2024</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -491,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -638,6 +642,23 @@
         <v>25445</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>120114</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25994</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
